--- a/RawData/MoguData.xlsx
+++ b/RawData/MoguData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsushikikumoto/Dropbox/TEMPORARY HOLDER/Mogu_Project/RawData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsushikikumoto/Dropbox/TEMPORARY_HOLDER/Mogu_Project/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E651CA95-B5A9-7443-B701-3A9A1F16D225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA05F6B0-AF78-314B-94A0-34C7467E4A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="1780" windowWidth="28040" windowHeight="17440" xr2:uid="{7B0A6FD0-13AD-C447-B075-853F6D4C5AB1}"/>
+    <workbookView xWindow="2580" yWindow="540" windowWidth="28040" windowHeight="17440" xr2:uid="{7B0A6FD0-13AD-C447-B075-853F6D4C5AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -48,6 +48,24 @@
   </si>
   <si>
     <t>weight_ten_poops</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>broccoli</t>
+  </si>
+  <si>
+    <t>cabbage</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
 </sst>
 </file>
@@ -400,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EED6749-D4CA-404B-889E-FAB634FE176A}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -413,7 +431,7 @@
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +444,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45276</v>
       </c>
@@ -440,8 +461,11 @@
       <c r="D2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45277</v>
       </c>
@@ -454,8 +478,11 @@
       <c r="D3">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45278</v>
       </c>
@@ -468,8 +495,11 @@
       <c r="D4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45279</v>
       </c>
@@ -482,8 +512,11 @@
       <c r="D5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45280</v>
       </c>
@@ -496,8 +529,11 @@
       <c r="D6">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45281</v>
       </c>
@@ -510,8 +546,11 @@
       <c r="D7">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45282</v>
       </c>
@@ -524,13 +563,16 @@
       <c r="D8">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45283</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9">
         <v>0.81</v>
@@ -538,6 +580,741 @@
       <c r="D9">
         <v>0.11</v>
       </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45284</v>
+      </c>
+      <c r="B10">
+        <v>79</v>
+      </c>
+      <c r="C10">
+        <v>0.98</v>
+      </c>
+      <c r="D10">
+        <v>0.13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45285</v>
+      </c>
+      <c r="B11">
+        <v>102</v>
+      </c>
+      <c r="C11">
+        <v>1.06</v>
+      </c>
+      <c r="D11">
+        <v>0.21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B12">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D12">
+        <v>0.09</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B13">
+        <v>92</v>
+      </c>
+      <c r="C13">
+        <v>0.88</v>
+      </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B14">
+        <v>73</v>
+      </c>
+      <c r="C14">
+        <v>0.62</v>
+      </c>
+      <c r="D14">
+        <v>0.09</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+      <c r="C15">
+        <v>0.81</v>
+      </c>
+      <c r="D15">
+        <v>0.12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45290</v>
+      </c>
+      <c r="B16">
+        <v>71</v>
+      </c>
+      <c r="C16">
+        <v>0.49</v>
+      </c>
+      <c r="D16">
+        <v>0.05</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B17">
+        <v>93</v>
+      </c>
+      <c r="C17">
+        <v>0.83</v>
+      </c>
+      <c r="D17">
+        <v>0.11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B18">
+        <v>74</v>
+      </c>
+      <c r="C18">
+        <v>0.75</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B19">
+        <v>98</v>
+      </c>
+      <c r="C19">
+        <v>1.01</v>
+      </c>
+      <c r="D19">
+        <v>0.1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B20">
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>0.88</v>
+      </c>
+      <c r="D20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B21">
+        <v>70</v>
+      </c>
+      <c r="C21">
+        <v>0.85</v>
+      </c>
+      <c r="D21">
+        <v>0.11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B22">
+        <v>84</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45297</v>
+      </c>
+      <c r="B23">
+        <v>67</v>
+      </c>
+      <c r="C23">
+        <v>0.74</v>
+      </c>
+      <c r="D23">
+        <v>0.11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45298</v>
+      </c>
+      <c r="B24">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>0.6</v>
+      </c>
+      <c r="D24">
+        <v>0.11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B25">
+        <v>76</v>
+      </c>
+      <c r="C25">
+        <v>0.74</v>
+      </c>
+      <c r="D25">
+        <v>0.1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B26">
+        <v>76</v>
+      </c>
+      <c r="C26">
+        <v>0.9</v>
+      </c>
+      <c r="D26">
+        <v>0.1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B27">
+        <v>58</v>
+      </c>
+      <c r="C27">
+        <v>0.65</v>
+      </c>
+      <c r="D27">
+        <v>0.09</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45302</v>
+      </c>
+      <c r="B28">
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D28">
+        <v>0.1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B29">
+        <v>69</v>
+      </c>
+      <c r="C29">
+        <v>0.65</v>
+      </c>
+      <c r="D29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45304</v>
+      </c>
+      <c r="B30">
+        <v>85</v>
+      </c>
+      <c r="C30">
+        <v>0.77</v>
+      </c>
+      <c r="D30">
+        <v>0.11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>45305</v>
+      </c>
+      <c r="B31">
+        <v>81</v>
+      </c>
+      <c r="C31">
+        <v>0.72</v>
+      </c>
+      <c r="D31">
+        <v>0.1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B32">
+        <v>92</v>
+      </c>
+      <c r="C32">
+        <v>0.97</v>
+      </c>
+      <c r="D32">
+        <v>0.12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B33">
+        <v>83</v>
+      </c>
+      <c r="C33">
+        <v>1.04</v>
+      </c>
+      <c r="D33">
+        <v>0.12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B34">
+        <v>97</v>
+      </c>
+      <c r="C34">
+        <v>1.21</v>
+      </c>
+      <c r="D34">
+        <v>0.12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B35">
+        <v>94</v>
+      </c>
+      <c r="C35">
+        <v>0.98</v>
+      </c>
+      <c r="D35">
+        <v>0.09</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B36">
+        <v>91</v>
+      </c>
+      <c r="C36">
+        <v>0.93</v>
+      </c>
+      <c r="D36">
+        <v>0.12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>45311</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <v>1.05</v>
+      </c>
+      <c r="D37">
+        <v>0.1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>45312</v>
+      </c>
+      <c r="B38">
+        <v>69</v>
+      </c>
+      <c r="C38">
+        <v>0.78</v>
+      </c>
+      <c r="D38">
+        <v>0.1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B39">
+        <v>82</v>
+      </c>
+      <c r="C39">
+        <v>1.04</v>
+      </c>
+      <c r="D39">
+        <v>0.15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B40">
+        <v>81</v>
+      </c>
+      <c r="C40">
+        <v>1.06</v>
+      </c>
+      <c r="D40">
+        <v>0.17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B41">
+        <v>76</v>
+      </c>
+      <c r="C41">
+        <v>0.88</v>
+      </c>
+      <c r="D41">
+        <v>0.1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B42">
+        <v>93</v>
+      </c>
+      <c r="C42">
+        <v>0.93</v>
+      </c>
+      <c r="D42">
+        <v>0.09</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B43">
+        <v>90</v>
+      </c>
+      <c r="C43">
+        <v>0.93</v>
+      </c>
+      <c r="D43">
+        <v>0.09</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>45318</v>
+      </c>
+      <c r="B44">
+        <v>77</v>
+      </c>
+      <c r="C44">
+        <v>0.81</v>
+      </c>
+      <c r="D44">
+        <v>0.1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>45319</v>
+      </c>
+      <c r="B45">
+        <v>92</v>
+      </c>
+      <c r="C45">
+        <v>0.93</v>
+      </c>
+      <c r="D45">
+        <v>0.1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B46">
+        <v>65</v>
+      </c>
+      <c r="C46">
+        <v>0.78</v>
+      </c>
+      <c r="D46">
+        <v>0.11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B47">
+        <v>76</v>
+      </c>
+      <c r="C47">
+        <v>0.74</v>
+      </c>
+      <c r="D47">
+        <v>0.09</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B48">
+        <v>91</v>
+      </c>
+      <c r="C48">
+        <v>0.62</v>
+      </c>
+      <c r="D48">
+        <v>0.08</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B49">
+        <v>105</v>
+      </c>
+      <c r="C49">
+        <v>0.98</v>
+      </c>
+      <c r="D49">
+        <v>0.1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B50">
+        <v>83</v>
+      </c>
+      <c r="C50">
+        <v>0.76</v>
+      </c>
+      <c r="D50">
+        <v>0.1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>45325</v>
+      </c>
+      <c r="B51">
+        <v>110</v>
+      </c>
+      <c r="C51">
+        <v>0.96</v>
+      </c>
+      <c r="D51">
+        <v>0.11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
